--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="18540" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>客户名称</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>顶珍</t>
+  </si>
+  <si>
+    <t>浦发银行成都分行</t>
+  </si>
+  <si>
+    <t>不良资产尽调</t>
+  </si>
+  <si>
+    <t>浦</t>
+  </si>
+  <si>
+    <t>不</t>
   </si>
 </sst>
 </file>
@@ -107,6 +119,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -115,14 +173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,40 +181,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,30 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -206,39 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +265,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,19 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,43 +361,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,31 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,61 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +459,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +533,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -518,32 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -552,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
@@ -1142,6 +1154,32 @@
       </c>
       <c r="I4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42824</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43161</v>
+      </c>
+      <c r="E5">
+        <v>36000</v>
+      </c>
+      <c r="F5">
+        <v>36000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1197,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1175,7 +1213,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="9730"/>
+    <workbookView windowWidth="15870" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>客户名称</t>
   </si>
@@ -36,13 +36,52 @@
     <t>办案律师费</t>
   </si>
   <si>
+    <t>客户名称关键字</t>
+  </si>
+  <si>
+    <t>项目名称关键字</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>客户名称关键字</t>
-  </si>
-  <si>
-    <t>项目名称关键字</t>
+    <t>玖信科技</t>
+  </si>
+  <si>
+    <t>股权代持专项服务</t>
+  </si>
+  <si>
+    <t>玖信</t>
+  </si>
+  <si>
+    <t>代持</t>
+  </si>
+  <si>
+    <t>瑞星行</t>
+  </si>
+  <si>
+    <t>法律顾问2016-2017</t>
+  </si>
+  <si>
+    <t>瑞星行|瑞星公司</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
+    <t>绿满仓农业</t>
+  </si>
+  <si>
+    <t>法律顾问2017</t>
+  </si>
+  <si>
+    <t>绿满仓|绿华</t>
+  </si>
+  <si>
+    <t>农资集团</t>
+  </si>
+  <si>
+    <t>农资集团|川农资|农业生产|农业资料</t>
   </si>
   <si>
     <t>东区医院</t>
@@ -51,27 +90,18 @@
     <t>谭谷明vs东区医院人身权纠纷</t>
   </si>
   <si>
+    <t>东区</t>
+  </si>
+  <si>
+    <t>东区;谭谷</t>
+  </si>
+  <si>
     <t>一审</t>
   </si>
   <si>
-    <t>东区</t>
-  </si>
-  <si>
-    <t>东区;谭谷</t>
-  </si>
-  <si>
-    <t>法律顾问2017</t>
-  </si>
-  <si>
     <t>东区;医院</t>
   </si>
   <si>
-    <t>顾问</t>
-  </si>
-  <si>
-    <t>农资集团</t>
-  </si>
-  <si>
     <t>顶珍生物尽调</t>
   </si>
   <si>
@@ -91,6 +121,48 @@
   </si>
   <si>
     <t>不</t>
+  </si>
+  <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018上半年</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>正式起始日期为2017年6月13日，前期工时记入</t>
+  </si>
+  <si>
+    <t>俊屹集团</t>
+  </si>
+  <si>
+    <t>诚实实业尽调</t>
+  </si>
+  <si>
+    <t>2017-06-25</t>
+  </si>
+  <si>
+    <t>2017-08-23</t>
+  </si>
+  <si>
+    <t>俊</t>
+  </si>
+  <si>
+    <t>诚实</t>
+  </si>
+  <si>
+    <t>王贵宏、钱舍涵劳动争议案</t>
+  </si>
+  <si>
+    <t>2017-06-11</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>王|钱</t>
   </si>
 </sst>
 </file>
@@ -98,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,99 +185,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +214,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +298,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -249,8 +313,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,25 +344,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,78 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,72 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +542,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,45 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +579,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -564,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,142 +655,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1032,20 +1117,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1077,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" customFormat="1" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1085,14 +1171,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>43095</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43115</v>
+      </c>
       <c r="E2">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1100,37 +1188,34 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D3" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E3">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>25000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1138,48 +1223,234 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E5">
+        <v>50000</v>
+      </c>
+      <c r="F5">
+        <v>25000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42922</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>15000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
         <v>42983</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="1">
         <v>43019</v>
       </c>
-      <c r="E4">
+      <c r="E8">
         <v>50000</v>
       </c>
-      <c r="F4">
+      <c r="F8">
         <v>25000</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
         <v>42824</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1">
         <v>43161</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>36000</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>36000</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42873</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43081</v>
+      </c>
+      <c r="E10">
+        <v>65000</v>
+      </c>
+      <c r="F10">
+        <v>32500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>80000</v>
+      </c>
+      <c r="F11">
+        <v>40000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>8000</v>
+      </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1468,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1213,7 +1484,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,6 +45,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>农资集团</t>
+  </si>
+  <si>
+    <t>金和矿业转让</t>
+  </si>
+  <si>
+    <t>农资集团|农业生产</t>
+  </si>
+  <si>
+    <t>金和</t>
+  </si>
+  <si>
     <t>玖信科技</t>
   </si>
   <si>
@@ -76,9 +88,6 @@
   </si>
   <si>
     <t>绿满仓|绿华</t>
-  </si>
-  <si>
-    <t>农资集团</t>
   </si>
   <si>
     <t>农资集团|川农资|农业生产|农业资料</t>
@@ -170,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,7 +208,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,82 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -299,7 +308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +316,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -315,14 +331,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,30 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,13 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,6 +633,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1171,16 +1180,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>43095</v>
+        <v>43057</v>
       </c>
       <c r="D2" s="1">
-        <v>43115</v>
+        <v>43166</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1197,16 +1206,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>42657</v>
+        <v>43095</v>
       </c>
       <c r="D3" s="1">
-        <v>43021</v>
+        <v>43115</v>
       </c>
       <c r="E3">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F3">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1223,30 +1232,30 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D4" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E4">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F4">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>42736</v>
@@ -1255,202 +1264,228 @@
         <v>43100</v>
       </c>
       <c r="E5">
+        <v>30000</v>
+      </c>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>25000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6">
-        <v>20000</v>
-      </c>
-      <c r="F6">
-        <v>10000</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43100</v>
-      </c>
+        <v>42922</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F7">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42983</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43019</v>
-      </c>
-      <c r="E8">
-        <v>50000</v>
-      </c>
-      <c r="F8">
-        <v>25000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E9">
+        <v>50000</v>
+      </c>
+      <c r="F9">
+        <v>25000</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1">
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
         <v>42824</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>43161</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>36000</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>36000</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
         <v>42873</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>43081</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>65000</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>32500</v>
       </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>80000</v>
-      </c>
-      <c r="F11">
-        <v>40000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
+      <c r="A12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12">
+        <v>80000</v>
+      </c>
+      <c r="F12">
+        <v>40000</v>
+      </c>
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="E12">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
         <v>8000</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>4000</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,6 +45,24 @@
     <t>备注</t>
   </si>
   <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>派驻律师服务2017-2018</t>
+  </si>
+  <si>
+    <t>银河教育</t>
+  </si>
+  <si>
+    <t>法律顾问2016-2017</t>
+  </si>
+  <si>
+    <t>银河</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
     <t>农资集团</t>
   </si>
   <si>
@@ -72,15 +90,9 @@
     <t>瑞星行</t>
   </si>
   <si>
-    <t>法律顾问2016-2017</t>
-  </si>
-  <si>
     <t>瑞星行|瑞星公司</t>
   </si>
   <si>
-    <t>顾问</t>
-  </si>
-  <si>
     <t>绿满仓农业</t>
   </si>
   <si>
@@ -130,9 +142,6 @@
   </si>
   <si>
     <t>不</t>
-  </si>
-  <si>
-    <t>每日经济新闻</t>
   </si>
   <si>
     <t>法律顾问2017-2018上半年</t>
@@ -201,12 +210,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -215,60 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,9 +268,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +307,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -306,8 +322,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,28 +348,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +362,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,25 +440,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,145 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +589,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -601,15 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,26 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,145 +661,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1172,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
+    <row r="2" customFormat="1" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1180,114 +1189,108 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>43057</v>
+        <v>43070</v>
       </c>
       <c r="D2" s="1">
-        <v>43166</v>
+        <v>43434</v>
       </c>
       <c r="E2">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F2">
-        <v>40000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>43095</v>
+        <v>42663</v>
       </c>
       <c r="D3" s="1">
-        <v>43115</v>
+        <v>43027</v>
       </c>
       <c r="E3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F3">
         <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E4">
+        <v>80000</v>
+      </c>
+      <c r="F4">
+        <v>40000</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42657</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43021</v>
-      </c>
-      <c r="E4">
-        <v>50000</v>
-      </c>
-      <c r="F4">
-        <v>25000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43095</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43115</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E5">
-        <v>30000</v>
-      </c>
-      <c r="F5">
-        <v>15000</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D6" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E6">
         <v>50000</v>
@@ -1299,10 +1302,10 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1310,31 +1313,30 @@
         <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>42736</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43100</v>
+      </c>
       <c r="E7">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F7">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>42736</v>
@@ -1343,149 +1345,202 @@
         <v>43100</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F8">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>42922</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+      <c r="F9">
+        <v>10000</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1">
-        <v>42983</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43019</v>
-      </c>
-      <c r="E9">
-        <v>50000</v>
-      </c>
-      <c r="F9">
-        <v>25000</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <v>15000</v>
+      </c>
+      <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1">
-        <v>42824</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43161</v>
-      </c>
-      <c r="E10">
-        <v>36000</v>
-      </c>
-      <c r="F10">
-        <v>36000</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C11" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11">
+        <v>25000</v>
+      </c>
+      <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42873</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43081</v>
-      </c>
-      <c r="E11">
-        <v>65000</v>
-      </c>
-      <c r="F11">
-        <v>32500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42824</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43161</v>
+      </c>
+      <c r="E12">
+        <v>36000</v>
+      </c>
+      <c r="F12">
+        <v>36000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="1">
+        <v>42873</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43081</v>
+      </c>
+      <c r="E13">
+        <v>65000</v>
+      </c>
+      <c r="F13">
+        <v>32500</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
         <v>80000</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>40000</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
         <v>8000</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>4000</v>
       </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,6 +45,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>农资集团</t>
+  </si>
+  <si>
+    <t>仲帮种业尽调</t>
+  </si>
+  <si>
+    <t>农</t>
+  </si>
+  <si>
+    <t>仲</t>
+  </si>
+  <si>
     <t>每日经济新闻</t>
   </si>
   <si>
@@ -63,9 +75,6 @@
     <t>顾问</t>
   </si>
   <si>
-    <t>农资集团</t>
-  </si>
-  <si>
     <t>金和矿业转让</t>
   </si>
   <si>
@@ -124,9 +133,6 @@
   </si>
   <si>
     <t>顶珍生物尽调</t>
-  </si>
-  <si>
-    <t>农</t>
   </si>
   <si>
     <t>顶珍</t>
@@ -209,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -217,14 +231,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,59 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -307,51 +337,27 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,181 +368,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,21 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,40 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +621,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1181,7 +1187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" customFormat="1" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1189,42 +1195,42 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
+        <v>42988</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43227</v>
+      </c>
+      <c r="E2">
+        <v>50000</v>
+      </c>
+      <c r="F2">
+        <v>35000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
         <v>43070</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>43434</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>100000</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42663</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43027</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>5000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
@@ -1235,16 +1241,16 @@
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>43057</v>
+        <v>42663</v>
       </c>
       <c r="D4" s="1">
-        <v>43166</v>
+        <v>43027</v>
       </c>
       <c r="E4">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F4">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1255,88 +1261,88 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E5">
+        <v>80000</v>
+      </c>
+      <c r="F5">
+        <v>40000</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>43095</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43115</v>
-      </c>
-      <c r="E5">
-        <v>5000</v>
-      </c>
-      <c r="F5">
-        <v>5000</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="1">
-        <v>42657</v>
+        <v>43095</v>
       </c>
       <c r="D6" s="1">
-        <v>43021</v>
+        <v>43115</v>
       </c>
       <c r="E6">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F6">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D7" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E7">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F7">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>42736</v>
@@ -1345,202 +1351,228 @@
         <v>43100</v>
       </c>
       <c r="E8">
+        <v>30000</v>
+      </c>
+      <c r="F8">
+        <v>15000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E9">
         <v>50000</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>25000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9">
-        <v>20000</v>
-      </c>
-      <c r="F9">
-        <v>10000</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43100</v>
-      </c>
+        <v>42922</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
-        <v>42983</v>
+        <v>42736</v>
       </c>
       <c r="D11" s="1">
-        <v>43019</v>
+        <v>43100</v>
       </c>
       <c r="E11">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="F11">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E12">
+        <v>50000</v>
+      </c>
+      <c r="F12">
+        <v>25000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
         <v>42824</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>43161</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>36000</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>36000</v>
       </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
         <v>42873</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>43081</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>65000</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>32500</v>
       </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>80000</v>
-      </c>
-      <c r="F14">
-        <v>40000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
+      <c r="A15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>80000</v>
+      </c>
+      <c r="F15">
+        <v>40000</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E15">
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
         <v>8000</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>4000</v>
       </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,6 +45,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>万欣科技</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018</t>
+  </si>
+  <si>
+    <t>万欣</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
     <t>农资集团</t>
   </si>
   <si>
@@ -70,9 +82,6 @@
   </si>
   <si>
     <t>银河</t>
-  </si>
-  <si>
-    <t>顾问</t>
   </si>
   <si>
     <t>金和矿业转让</t>
@@ -194,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -210,6 +219,106 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,27 +333,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -258,32 +346,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,68 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,51 +568,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,16 +589,48 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -649,13 +645,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,19 +688,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,112 +709,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1195,16 +1204,16 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>42988</v>
+        <v>42826</v>
       </c>
       <c r="D2" s="1">
-        <v>43227</v>
+        <v>43190</v>
       </c>
       <c r="E2">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F2">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1213,7 +1222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
+    <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1221,154 +1230,154 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
+        <v>42988</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43227</v>
+      </c>
+      <c r="E3">
+        <v>50000</v>
+      </c>
+      <c r="F3">
+        <v>35000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
         <v>43070</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>43434</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>100000</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:8">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42663</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43027</v>
-      </c>
-      <c r="E4">
-        <v>10000</v>
-      </c>
-      <c r="F4">
-        <v>5000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>43057</v>
+        <v>42663</v>
       </c>
       <c r="D5" s="1">
-        <v>43166</v>
+        <v>43027</v>
       </c>
       <c r="E5">
-        <v>80000</v>
+        <v>10000</v>
       </c>
       <c r="F5">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E6">
+        <v>80000</v>
+      </c>
+      <c r="F6">
+        <v>40000</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
-        <v>43095</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43115</v>
-      </c>
-      <c r="E6">
-        <v>5000</v>
-      </c>
-      <c r="F6">
-        <v>5000</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="1">
-        <v>42657</v>
+        <v>43095</v>
       </c>
       <c r="D7" s="1">
-        <v>43021</v>
+        <v>43115</v>
       </c>
       <c r="E7">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F7">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D8" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E8">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F8">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>42736</v>
@@ -1377,202 +1386,228 @@
         <v>43100</v>
       </c>
       <c r="E9">
+        <v>30000</v>
+      </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E10">
         <v>50000</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>25000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10">
-        <v>20000</v>
-      </c>
-      <c r="F10">
-        <v>10000</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43100</v>
-      </c>
+        <v>42922</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F11">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>42983</v>
+        <v>42736</v>
       </c>
       <c r="D12" s="1">
-        <v>43019</v>
+        <v>43100</v>
       </c>
       <c r="E12">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="F12">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>42824</v>
+        <v>42983</v>
       </c>
       <c r="D13" s="1">
-        <v>43161</v>
+        <v>43019</v>
       </c>
       <c r="E13">
-        <v>36000</v>
+        <v>50000</v>
       </c>
       <c r="F13">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="1">
-        <v>42873</v>
+        <v>42824</v>
       </c>
       <c r="D14" s="1">
-        <v>43081</v>
+        <v>43161</v>
       </c>
       <c r="E14">
-        <v>65000</v>
+        <v>36000</v>
       </c>
       <c r="F14">
-        <v>32500</v>
+        <v>36000</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="1">
+        <v>42873</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43081</v>
+      </c>
+      <c r="E15">
+        <v>65000</v>
+      </c>
+      <c r="F15">
+        <v>32500</v>
+      </c>
+      <c r="G15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15">
-        <v>80000</v>
-      </c>
-      <c r="F15">
-        <v>40000</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
+      <c r="A16" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16">
+        <v>80000</v>
+      </c>
+      <c r="F16">
+        <v>40000</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="E16">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
         <v>8000</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4000</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="15870" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,16 +45,19 @@
     <t>备注</t>
   </si>
   <si>
+    <t>瑞星川物</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
     <t>万欣科技</t>
   </si>
   <si>
-    <t>法律顾问2017-2018</t>
-  </si>
-  <si>
     <t>万欣</t>
-  </si>
-  <si>
-    <t>顾问</t>
   </si>
   <si>
     <t>农资集团</t>
@@ -203,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -226,6 +229,81 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,60 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,27 +357,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -377,6 +380,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,60 +518,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,60 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,30 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -621,6 +609,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,21 +663,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -676,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1204,206 +1207,206 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>42826</v>
+        <v>42879</v>
       </c>
       <c r="D2" s="1">
-        <v>43190</v>
+        <v>43243</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F2">
         <v>20000</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42826</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43190</v>
+      </c>
+      <c r="E3">
+        <v>20000</v>
+      </c>
+      <c r="F3">
+        <v>20000</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
         <v>42988</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>43227</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>50000</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>35000</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
         <v>43070</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <v>43434</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>100000</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>100000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:8">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42663</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43027</v>
-      </c>
-      <c r="E5">
-        <v>10000</v>
-      </c>
-      <c r="F5">
-        <v>5000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42663</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43027</v>
+      </c>
+      <c r="E6">
+        <v>10000</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
-        <v>43057</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43166</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-      <c r="F6">
-        <v>40000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E7">
+        <v>80000</v>
+      </c>
+      <c r="F7">
+        <v>40000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43095</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43115</v>
-      </c>
-      <c r="E7">
-        <v>5000</v>
-      </c>
-      <c r="F7">
-        <v>5000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43095</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43115</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8">
+        <v>5000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42657</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43021</v>
-      </c>
-      <c r="E8">
-        <v>50000</v>
-      </c>
-      <c r="F8">
-        <v>25000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42657</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E9">
+        <v>50000</v>
+      </c>
+      <c r="F9">
+        <v>25000</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:8">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E9">
-        <v>30000</v>
-      </c>
-      <c r="F9">
-        <v>15000</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>42736</v>
@@ -1412,202 +1415,228 @@
         <v>43100</v>
       </c>
       <c r="E10">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F10">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E11">
+        <v>50000</v>
+      </c>
+      <c r="F11">
+        <v>25000</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
         <v>42922</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11">
+      <c r="D12" s="1"/>
+      <c r="E12">
         <v>20000</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>10000</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E12">
-        <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>15000</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>15000</v>
+      </c>
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1">
-        <v>42983</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43019</v>
-      </c>
-      <c r="E13">
-        <v>50000</v>
-      </c>
-      <c r="F13">
-        <v>25000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E14">
+        <v>50000</v>
+      </c>
+      <c r="F14">
+        <v>25000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
         <v>42824</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>43161</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>36000</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>36000</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
         <v>42873</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>43081</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>65000</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>32500</v>
       </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16">
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
         <v>80000</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>40000</v>
       </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E17">
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
         <v>8000</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4000</v>
       </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="15525" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,15 +45,42 @@
     <t>备注</t>
   </si>
   <si>
+    <t>南环药业</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018</t>
+  </si>
+  <si>
+    <t>南环</t>
+  </si>
+  <si>
+    <t>顾|南环|债</t>
+  </si>
+  <si>
+    <t>时代悟得</t>
+  </si>
+  <si>
+    <t>路路|时代</t>
+  </si>
+  <si>
+    <t>顾|路</t>
+  </si>
+  <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018下半年</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
     <t>瑞星川物</t>
   </si>
   <si>
-    <t>法律顾问2017-2018</t>
-  </si>
-  <si>
-    <t>顾问</t>
-  </si>
-  <si>
     <t>万欣科技</t>
   </si>
   <si>
@@ -72,9 +99,6 @@
     <t>仲</t>
   </si>
   <si>
-    <t>每日经济新闻</t>
-  </si>
-  <si>
     <t>派驻律师服务2017-2018</t>
   </si>
   <si>
@@ -163,9 +187,6 @@
   </si>
   <si>
     <t>法律顾问2017-2018上半年</t>
-  </si>
-  <si>
-    <t>每</t>
   </si>
   <si>
     <t>正式起始日期为2017年6月13日，前期工时记入</t>
@@ -234,6 +255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -242,6 +271,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -250,6 +307,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -258,17 +360,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,95 +385,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +595,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,36 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,20 +678,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1207,285 +1228,284 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>42879</v>
+        <v>42838</v>
       </c>
       <c r="D2" s="1">
-        <v>43243</v>
+        <v>43202</v>
       </c>
       <c r="E2">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>42826</v>
+        <v>42912</v>
       </c>
       <c r="D3" s="1">
-        <v>43190</v>
+        <v>43273</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F3">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>42988</v>
+        <v>43082</v>
       </c>
       <c r="D4" s="1">
-        <v>43227</v>
+        <v>43263</v>
       </c>
       <c r="E4">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="F4">
-        <v>35000</v>
+        <v>32500</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42879</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43243</v>
+      </c>
+      <c r="E5">
+        <v>40000</v>
+      </c>
+      <c r="F5">
+        <v>20000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43070</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43434</v>
-      </c>
-      <c r="E5">
-        <v>100000</v>
-      </c>
-      <c r="F5">
-        <v>100000</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>42663</v>
+        <v>42826</v>
       </c>
       <c r="D6" s="1">
-        <v>43027</v>
+        <v>43190</v>
       </c>
       <c r="E6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F6">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
-        <v>43057</v>
+        <v>42988</v>
       </c>
       <c r="D7" s="1">
-        <v>43166</v>
+        <v>43227</v>
       </c>
       <c r="E7">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="F7">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1">
-        <v>43095</v>
+        <v>43070</v>
       </c>
       <c r="D8" s="1">
-        <v>43115</v>
+        <v>43434</v>
       </c>
       <c r="E8">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="F8">
-        <v>5000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42663</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43027</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9">
+        <v>5000</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42657</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43021</v>
-      </c>
-      <c r="E9">
-        <v>50000</v>
-      </c>
-      <c r="F9">
-        <v>25000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E10">
+        <v>80000</v>
+      </c>
+      <c r="F10">
+        <v>40000</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E10">
-        <v>30000</v>
-      </c>
-      <c r="F10">
-        <v>15000</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
-        <v>42736</v>
+        <v>43095</v>
       </c>
       <c r="D11" s="1">
-        <v>43100</v>
+        <v>43115</v>
       </c>
       <c r="E11">
+        <v>5000</v>
+      </c>
+      <c r="F11">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42657</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E12">
         <v>50000</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>25000</v>
       </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1">
-        <v>42922</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12">
-        <v>20000</v>
-      </c>
-      <c r="F12">
-        <v>10000</v>
-      </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:8">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>42736</v>
@@ -1494,30 +1514,30 @@
         <v>43100</v>
       </c>
       <c r="E13">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="F13">
         <v>15000</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
-        <v>42983</v>
+        <v>42736</v>
       </c>
       <c r="D14" s="1">
-        <v>43019</v>
+        <v>43100</v>
       </c>
       <c r="E14">
         <v>50000</v>
@@ -1526,13 +1546,13 @@
         <v>25000</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1540,16 +1560,14 @@
         <v>45</v>
       </c>
       <c r="C15" s="1">
-        <v>42824</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43161</v>
-      </c>
+        <v>42922</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="F15">
-        <v>36000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1557,86 +1575,167 @@
       <c r="H15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1">
-        <v>42873</v>
+        <v>42736</v>
       </c>
       <c r="D16" s="1">
-        <v>43081</v>
+        <v>43100</v>
       </c>
       <c r="E16">
-        <v>65000</v>
+        <v>3000</v>
       </c>
       <c r="F16">
-        <v>32500</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E17">
+        <v>50000</v>
+      </c>
+      <c r="F17">
+        <v>25000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="1">
+        <v>42824</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43161</v>
+      </c>
+      <c r="E18">
+        <v>36000</v>
+      </c>
+      <c r="F18">
+        <v>36000</v>
+      </c>
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="E17">
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42873</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43081</v>
+      </c>
+      <c r="E19">
+        <v>65000</v>
+      </c>
+      <c r="F19">
+        <v>32500</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20">
         <v>80000</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>40000</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>8000</v>
+      </c>
+      <c r="F21">
+        <v>4000</v>
+      </c>
+      <c r="G21" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18">
-        <v>8000</v>
-      </c>
-      <c r="F18">
-        <v>4000</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
+      <c r="H21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15525" windowHeight="7860"/>
+    <workbookView windowWidth="16035" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,8 +229,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -249,7 +249,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +323,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -271,71 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -344,17 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,21 +592,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,26 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,6 +648,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1562,7 +1562,9 @@
       <c r="C15" s="1">
         <v>42922</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>43312</v>
+      </c>
       <c r="E15">
         <v>20000</v>
       </c>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7860"/>
+    <workbookView windowWidth="19200" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>客户名称</t>
   </si>
@@ -45,12 +48,102 @@
     <t>备注</t>
   </si>
   <si>
+    <t>肖红</t>
+  </si>
+  <si>
+    <t>瑞龙制药尽职调查</t>
+  </si>
+  <si>
+    <t>瑞龙</t>
+  </si>
+  <si>
+    <t>扣差旅费：肖敏5665（王彬已付），王彬4390</t>
+  </si>
+  <si>
+    <t>周吉玲</t>
+  </si>
+  <si>
+    <t>周吉玲vs唐小军民间借贷纠纷</t>
+  </si>
+  <si>
+    <t>周吉</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>汇兴投资</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018</t>
+  </si>
+  <si>
+    <t>汇兴</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
+    <t>郑彬</t>
+  </si>
+  <si>
+    <t>郑彬vs苍溪医院</t>
+  </si>
+  <si>
+    <t>扣罗烨希报差旅费1070</t>
+  </si>
+  <si>
+    <t>子腾医药</t>
+  </si>
+  <si>
+    <t>子腾|华奥|尚锐</t>
+  </si>
+  <si>
+    <t>瑞星行</t>
+  </si>
+  <si>
+    <t>瑞星行|瑞星公司</t>
+  </si>
+  <si>
+    <t>银河教育</t>
+  </si>
+  <si>
+    <t>银河</t>
+  </si>
+  <si>
+    <t>东区医院</t>
+  </si>
+  <si>
+    <t>法律顾问2018</t>
+  </si>
+  <si>
+    <t>东区;医院</t>
+  </si>
+  <si>
+    <t>绿满仓农业</t>
+  </si>
+  <si>
+    <t>绿满仓|绿华</t>
+  </si>
+  <si>
+    <t>农资集团</t>
+  </si>
+  <si>
+    <t>农资集团|川农资|农业生产|农业资料</t>
+  </si>
+  <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>法律顾问2018-2019上半年</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
     <t>南环药业</t>
   </si>
   <si>
-    <t>法律顾问2017-2018</t>
-  </si>
-  <si>
     <t>南环</t>
   </si>
   <si>
@@ -66,18 +159,9 @@
     <t>顾|路</t>
   </si>
   <si>
-    <t>每日经济新闻</t>
-  </si>
-  <si>
     <t>法律顾问2017-2018下半年</t>
   </si>
   <si>
-    <t>每</t>
-  </si>
-  <si>
-    <t>顾问</t>
-  </si>
-  <si>
     <t>瑞星川物</t>
   </si>
   <si>
@@ -87,9 +171,6 @@
     <t>万欣</t>
   </si>
   <si>
-    <t>农资集团</t>
-  </si>
-  <si>
     <t>仲帮种业尽调</t>
   </si>
   <si>
@@ -102,15 +183,9 @@
     <t>派驻律师服务2017-2018</t>
   </si>
   <si>
-    <t>银河教育</t>
-  </si>
-  <si>
     <t>法律顾问2016-2017</t>
   </si>
   <si>
-    <t>银河</t>
-  </si>
-  <si>
     <t>金和矿业转让</t>
   </si>
   <si>
@@ -132,27 +207,9 @@
     <t>代持</t>
   </si>
   <si>
-    <t>瑞星行</t>
-  </si>
-  <si>
-    <t>瑞星行|瑞星公司</t>
-  </si>
-  <si>
-    <t>绿满仓农业</t>
-  </si>
-  <si>
     <t>法律顾问2017</t>
   </si>
   <si>
-    <t>绿满仓|绿华</t>
-  </si>
-  <si>
-    <t>农资集团|川农资|农业生产|农业资料</t>
-  </si>
-  <si>
-    <t>东区医院</t>
-  </si>
-  <si>
     <t>谭谷明vs东区医院人身权纠纷</t>
   </si>
   <si>
@@ -163,9 +220,6 @@
   </si>
   <si>
     <t>一审</t>
-  </si>
-  <si>
-    <t>东区;医院</t>
   </si>
   <si>
     <t>顶珍生物尽调</t>
@@ -249,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,11 +324,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,7 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,38 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +408,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -370,16 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +437,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -401,6 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,7 +473,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,19 +521,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,91 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +646,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,15 +684,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +703,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,7 +727,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,26 +746,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +754,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +766,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,15 +1228,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="6" width="11.5" customWidth="1"/>
@@ -1220,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
+    <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1228,21 +1282,24 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>42838</v>
+        <v>43229</v>
       </c>
       <c r="D2" s="1">
-        <v>43202</v>
+        <v>43385</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>34945</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1251,253 +1308,262 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>42912</v>
+        <v>42656</v>
       </c>
       <c r="D3" s="1">
-        <v>43273</v>
+        <v>43452</v>
       </c>
       <c r="E3">
-        <v>30000</v>
+        <v>70000</v>
       </c>
       <c r="F3">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>43082</v>
+        <v>42931</v>
       </c>
       <c r="D4" s="1">
-        <v>43263</v>
+        <v>43343</v>
       </c>
       <c r="E4">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="F4">
-        <v>32500</v>
+        <v>30000</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>42879</v>
+        <v>43158</v>
       </c>
       <c r="D5" s="1">
-        <v>43243</v>
+        <v>43398</v>
       </c>
       <c r="E5">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F5">
-        <v>20000</v>
+        <v>13930</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>42826</v>
+        <v>43022</v>
       </c>
       <c r="D6" s="1">
-        <v>43190</v>
+        <v>43386</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="F6">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>42988</v>
+        <v>43022</v>
       </c>
       <c r="D7" s="1">
-        <v>43227</v>
+        <v>43386</v>
       </c>
       <c r="E7">
         <v>50000</v>
       </c>
       <c r="F7">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>43070</v>
+        <v>43028</v>
       </c>
       <c r="D8" s="1">
-        <v>43434</v>
+        <v>43392</v>
       </c>
       <c r="E8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F8">
-        <v>100000</v>
+        <v>5000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>42663</v>
+        <v>43101</v>
       </c>
       <c r="D9" s="1">
-        <v>43027</v>
+        <v>43465</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1">
-        <v>43057</v>
+        <v>43101</v>
       </c>
       <c r="D10" s="1">
-        <v>43166</v>
+        <v>43465</v>
       </c>
       <c r="E10">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="F10">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:8">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
-        <v>43095</v>
+        <v>43101</v>
       </c>
       <c r="D11" s="1">
-        <v>43115</v>
+        <v>43465</v>
       </c>
       <c r="E11">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="F11">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:8">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="1">
-        <v>42657</v>
+        <v>43264</v>
       </c>
       <c r="D12" s="1">
-        <v>43021</v>
+        <v>43446</v>
       </c>
       <c r="E12">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="F12">
-        <v>25000</v>
+        <v>32500</v>
       </c>
       <c r="G12" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:8">
@@ -1505,239 +1571,519 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42838</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43202</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1">
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42912</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E14">
+        <v>30000</v>
+      </c>
+      <c r="F14">
+        <v>15000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43082</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43263</v>
+      </c>
+      <c r="E15">
+        <v>65000</v>
+      </c>
+      <c r="F15">
+        <v>32500</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42879</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43243</v>
+      </c>
+      <c r="E16">
+        <v>40000</v>
+      </c>
+      <c r="F16">
+        <v>20000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:8">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42826</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43190</v>
+      </c>
+      <c r="E17">
+        <v>20000</v>
+      </c>
+      <c r="F17">
+        <v>20000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:8">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42988</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43227</v>
+      </c>
+      <c r="E18">
+        <v>50000</v>
+      </c>
+      <c r="F18">
+        <v>35000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:6">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43070</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43434</v>
+      </c>
+      <c r="E19">
+        <v>69761</v>
+      </c>
+      <c r="F19">
+        <v>69761</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42663</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43027</v>
+      </c>
+      <c r="E20">
+        <v>10000</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:8">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43057</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43166</v>
+      </c>
+      <c r="E21">
+        <v>80000</v>
+      </c>
+      <c r="F21">
+        <v>40000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:8">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43095</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43115</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:8">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42657</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43021</v>
+      </c>
+      <c r="E23">
+        <v>50000</v>
+      </c>
+      <c r="F23">
+        <v>25000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:8">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1">
         <v>42736</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D24" s="1">
         <v>43100</v>
       </c>
-      <c r="E13">
+      <c r="E24">
         <v>30000</v>
       </c>
-      <c r="F13">
+      <c r="F24">
         <v>15000</v>
       </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1">
         <v>42736</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D25" s="1">
         <v>43100</v>
       </c>
-      <c r="E14">
+      <c r="E25">
         <v>50000</v>
       </c>
-      <c r="F14">
+      <c r="F25">
         <v>25000</v>
       </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1">
         <v>42922</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D26" s="1">
         <v>43312</v>
       </c>
-      <c r="E15">
+      <c r="E26">
         <v>20000</v>
       </c>
-      <c r="F15">
+      <c r="F26">
         <v>10000</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1">
         <v>42736</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D27" s="1">
         <v>43100</v>
       </c>
-      <c r="E16">
-        <v>3000</v>
-      </c>
-      <c r="F16">
+      <c r="E27">
+        <v>30000</v>
+      </c>
+      <c r="F27">
         <v>15000</v>
       </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1">
         <v>42983</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D28" s="1">
         <v>43019</v>
       </c>
-      <c r="E17">
+      <c r="E28">
         <v>50000</v>
       </c>
-      <c r="F17">
+      <c r="F28">
         <v>25000</v>
       </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="H28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1">
         <v>42824</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D29" s="1">
         <v>43161</v>
       </c>
-      <c r="E18">
+      <c r="E29">
         <v>36000</v>
       </c>
-      <c r="F18">
+      <c r="F29">
         <v>36000</v>
       </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1">
         <v>42873</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D30" s="1">
         <v>43081</v>
       </c>
-      <c r="E19">
+      <c r="E30">
         <v>65000</v>
       </c>
-      <c r="F19">
+      <c r="F30">
         <v>32500</v>
       </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20">
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31">
         <v>80000</v>
       </c>
-      <c r="F20">
+      <c r="F31">
         <v>40000</v>
       </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21">
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
         <v>8000</v>
       </c>
-      <c r="F21">
+      <c r="F32">
         <v>4000</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +2101,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1771,7 +2117,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/项目库.xlsx
+++ b/config/项目库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14740" windowHeight="9070"/>
+    <workbookView windowWidth="19200" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>客户名称</t>
   </si>
@@ -51,6 +51,33 @@
     <t>备注</t>
   </si>
   <si>
+    <t>成都中联</t>
+  </si>
+  <si>
+    <t>法律顾问2017-2018</t>
+  </si>
+  <si>
+    <t>中联</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>每日经济新闻</t>
+  </si>
+  <si>
+    <t>法律顾问2018-2019下半年</t>
+  </si>
+  <si>
+    <t>每经|每日</t>
+  </si>
+  <si>
+    <t>已付5000元给余龙。</t>
+  </si>
+  <si>
     <t>赵原伟</t>
   </si>
   <si>
@@ -75,9 +102,6 @@
     <t>陈霖|金灿</t>
   </si>
   <si>
-    <t>王彬</t>
-  </si>
-  <si>
     <t>内江中再生</t>
   </si>
   <si>
@@ -114,9 +138,6 @@
     <t>富华|富乐</t>
   </si>
   <si>
-    <t>顾问</t>
-  </si>
-  <si>
     <t>团队</t>
   </si>
   <si>
@@ -165,9 +186,6 @@
     <t>汇兴投资</t>
   </si>
   <si>
-    <t>法律顾问2017-2018</t>
-  </si>
-  <si>
     <t>汇兴</t>
   </si>
   <si>
@@ -217,9 +235,6 @@
   </si>
   <si>
     <t>农资集团|川农资|农业生产|农业资料</t>
-  </si>
-  <si>
-    <t>每日经济新闻</t>
   </si>
   <si>
     <t>法律顾问2018-2019上半年</t>
@@ -398,44 +413,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -444,16 +421,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,7 +475,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,37 +518,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -527,16 +526,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,43 +566,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,139 +722,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,19 +763,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,23 +826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,24 +849,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,10 +865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,133 +877,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1333,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1382,7 +1397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:8">
+    <row r="2" customFormat="1" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1390,16 +1405,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>43216</v>
+        <v>43040</v>
       </c>
       <c r="D2" s="1">
-        <v>43327</v>
+        <v>43407</v>
       </c>
       <c r="E2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1407,38 +1422,44 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:9">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>43216</v>
+        <v>43447</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43528</v>
+        <v>43557</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>65000</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:9">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1446,29 +1467,25 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>43363</v>
+        <v>43216</v>
       </c>
       <c r="D4" s="1">
-        <f ca="1">TODAY()</f>
-        <v>43528</v>
+        <v>43327</v>
       </c>
       <c r="E4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:10">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1476,16 +1493,17 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>43224</v>
+        <v>43216</v>
       </c>
       <c r="D5" s="1">
-        <v>43525</v>
+        <f ca="1">TODAY()</f>
+        <v>43557</v>
       </c>
       <c r="E5">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="F5">
-        <v>22990</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1494,69 +1512,69 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="1">
-        <v>43340</v>
+        <v>43363</v>
       </c>
       <c r="D6" s="1">
-        <v>43342</v>
+        <f ca="1">TODAY()</f>
+        <v>43557</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1">
+        <v>43224</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43525</v>
+      </c>
+      <c r="E7">
+        <v>80000</v>
+      </c>
+      <c r="F7">
+        <v>22990</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1">
-        <v>43009</v>
-      </c>
-      <c r="D7" s="1">
-        <f ca="1">TODAY()</f>
-        <v>43528</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
@@ -1567,10 +1585,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="1">
-        <v>43040</v>
+        <v>43340</v>
       </c>
       <c r="D8" s="1">
-        <v>43277</v>
+        <v>43342</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1582,13 +1600,13 @@
         <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1596,28 +1614,26 @@
         <v>40</v>
       </c>
       <c r="C9" s="1">
-        <v>43229</v>
+        <v>43009</v>
       </c>
       <c r="D9" s="1">
-        <v>43385</v>
+        <f ca="1">TODAY()</f>
+        <v>43557</v>
       </c>
       <c r="E9">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>34945</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:9">
@@ -1628,57 +1644,60 @@
         <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>42656</v>
+        <v>43040</v>
       </c>
       <c r="D10" s="1">
-        <v>43452</v>
+        <v>43277</v>
       </c>
       <c r="E10">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>32500</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
       </c>
       <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1">
+        <v>43229</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43556</v>
+      </c>
+      <c r="E11">
+        <v>90000</v>
+      </c>
+      <c r="F11">
+        <v>34945</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1">
-        <v>42931</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43343</v>
-      </c>
-      <c r="E11">
-        <v>60000</v>
-      </c>
-      <c r="F11">
-        <v>30000</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1686,181 +1705,181 @@
         <v>51</v>
       </c>
       <c r="C12" s="1">
-        <v>43158</v>
+        <v>42656</v>
       </c>
       <c r="D12" s="1">
-        <v>43398</v>
+        <v>43452</v>
       </c>
       <c r="E12">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="F12">
-        <v>13930</v>
+        <v>32500</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>43022</v>
+        <v>42931</v>
       </c>
       <c r="D13" s="1">
-        <v>43386</v>
+        <v>43343</v>
       </c>
       <c r="E13">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F13">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
-        <v>43022</v>
+        <v>43158</v>
       </c>
       <c r="D14" s="1">
-        <v>43386</v>
+        <v>43398</v>
       </c>
       <c r="E14">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F14">
-        <v>25000</v>
+        <v>13930</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>43028</v>
+        <v>43022</v>
       </c>
       <c r="D15" s="1">
-        <v>43392</v>
+        <v>43386</v>
       </c>
       <c r="E15">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F15">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>43101</v>
+        <v>43022</v>
       </c>
       <c r="D16" s="1">
-        <v>43465</v>
+        <v>43386</v>
       </c>
       <c r="E16">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F16">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>43101</v>
+        <v>43028</v>
       </c>
       <c r="D17" s="1">
-        <v>43465</v>
+        <v>43392</v>
       </c>
       <c r="E17">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F17">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>43101</v>
@@ -1869,439 +1888,439 @@
         <v>43465</v>
       </c>
       <c r="E18">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F18">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
       <c r="C19" s="1">
-        <v>43264</v>
+        <v>43101</v>
       </c>
       <c r="D19" s="1">
-        <v>43446</v>
+        <v>43465</v>
       </c>
       <c r="E19">
-        <v>65000</v>
+        <v>30000</v>
       </c>
       <c r="F19">
-        <v>32500</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
-        <v>42838</v>
+        <v>43101</v>
       </c>
       <c r="D20" s="1">
-        <v>43202</v>
+        <v>43465</v>
       </c>
       <c r="E20">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F20">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" s="1">
-        <v>42912</v>
+        <v>43264</v>
       </c>
       <c r="D21" s="1">
-        <v>43273</v>
+        <v>43446</v>
       </c>
       <c r="E21">
-        <v>30000</v>
+        <v>65000</v>
       </c>
       <c r="F21">
-        <v>15000</v>
+        <v>32500</v>
       </c>
       <c r="G21" t="s">
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42838</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43202</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="F22">
+        <v>10000</v>
+      </c>
+      <c r="G22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1">
-        <v>43082</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43263</v>
-      </c>
-      <c r="E22">
-        <v>65000</v>
-      </c>
-      <c r="F22">
-        <v>32500</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>42879</v>
+        <v>42912</v>
       </c>
       <c r="D23" s="1">
-        <v>43243</v>
+        <v>43273</v>
       </c>
       <c r="E23">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="F23">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
-        <v>43191</v>
+        <v>43082</v>
       </c>
       <c r="D24" s="1">
-        <v>43473</v>
+        <v>43263</v>
       </c>
       <c r="E24">
-        <v>18333</v>
+        <v>65000</v>
       </c>
       <c r="F24">
-        <v>9166</v>
+        <v>32500</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>42826</v>
+        <v>42879</v>
       </c>
       <c r="D25" s="1">
-        <v>43190</v>
+        <v>43243</v>
       </c>
       <c r="E25">
+        <v>40000</v>
+      </c>
+      <c r="F25">
         <v>20000</v>
       </c>
-      <c r="F25">
-        <v>10000</v>
-      </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:9">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1">
-        <v>42988</v>
+        <v>43191</v>
       </c>
       <c r="D26" s="1">
-        <v>43227</v>
+        <v>43473</v>
       </c>
       <c r="E26">
-        <v>50000</v>
+        <v>18333</v>
       </c>
       <c r="F26">
-        <v>35000</v>
+        <v>9166</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:9">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>43070</v>
+        <v>42826</v>
       </c>
       <c r="D27" s="1">
-        <v>43434</v>
+        <v>43190</v>
       </c>
       <c r="E27">
-        <v>69761</v>
+        <v>20000</v>
       </c>
       <c r="F27">
-        <v>69761</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="1">
-        <v>42663</v>
+        <v>42988</v>
       </c>
       <c r="D28" s="1">
-        <v>43027</v>
+        <v>43227</v>
       </c>
       <c r="E28">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F28">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:9">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1">
-        <v>43057</v>
+        <v>43070</v>
       </c>
       <c r="D29" s="1">
-        <v>43166</v>
+        <v>43434</v>
       </c>
       <c r="E29">
-        <v>80000</v>
+        <v>69761</v>
       </c>
       <c r="F29">
-        <v>40000</v>
+        <v>69761</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:9">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="1">
-        <v>43095</v>
+        <v>42663</v>
       </c>
       <c r="D30" s="1">
-        <v>43115</v>
+        <v>43027</v>
       </c>
       <c r="E30">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F30">
         <v>5000</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:9">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1">
-        <v>42657</v>
+        <v>43057</v>
       </c>
       <c r="D31" s="1">
-        <v>43021</v>
+        <v>43166</v>
       </c>
       <c r="E31">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="F31">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:9">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1">
-        <v>42736</v>
+        <v>43095</v>
       </c>
       <c r="D32" s="1">
-        <v>43100</v>
+        <v>43115</v>
       </c>
       <c r="E32">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="F32">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:9">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
-        <v>42736</v>
+        <v>42657</v>
       </c>
       <c r="D33" s="1">
-        <v>43100</v>
+        <v>43021</v>
       </c>
       <c r="E33">
         <v>50000</v>
@@ -2310,53 +2329,50 @@
         <v>25000</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:9">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1">
-        <v>42922</v>
+        <v>42736</v>
       </c>
       <c r="D34" s="1">
-        <v>43312</v>
+        <v>43100</v>
       </c>
       <c r="E34">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F34">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1">
         <v>42736</v>
@@ -2365,167 +2381,228 @@
         <v>43100</v>
       </c>
       <c r="E35">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="F35">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1">
-        <v>42983</v>
+        <v>42922</v>
       </c>
       <c r="D36" s="1">
-        <v>43019</v>
+        <v>43312</v>
       </c>
       <c r="E36">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F36">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D37" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E37">
+        <v>30000</v>
+      </c>
+      <c r="F37">
+        <v>15000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42983</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43019</v>
+      </c>
+      <c r="E38">
+        <v>50000</v>
+      </c>
+      <c r="F38">
+        <v>25000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1">
         <v>42824</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D39" s="1">
         <v>43161</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>36000</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>36000</v>
       </c>
-      <c r="G37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1">
         <v>42873</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D40" s="1">
         <v>43081</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>65000</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>32500</v>
       </c>
-      <c r="G38" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39">
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41">
         <v>80000</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>40000</v>
       </c>
-      <c r="G39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H39" t="s">
-        <v>112</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40">
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42">
         <v>8000</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>4000</v>
       </c>
-      <c r="G40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
+      <c r="G42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
